--- a/BT3456/Bài tập 6.1.xlsx
+++ b/BT3456/Bài tập 6.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/hiendh_hcmuit_edu_vn/Documents/UIT/Giang Day/[NT213] Bao mat Web va Ung dung/BM Web - Ung dung/001. BaiGiang-2022/06 - LFI, Command Inclusion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABDACC10487EC9DB57185ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D9D246-7627-4FCE-B439-A1226758069F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8DB44C-9020-4DB0-A990-B89695853FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1896" yWindow="1728" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -128,13 +128,28 @@
   </si>
   <si>
     <t>https://www.root-me.org/en/Challenges/Web-Server/PHP-assert</t>
+  </si>
+  <si>
+    <t>OpbNJ60xYpvAQU8</t>
+  </si>
+  <si>
+    <t>Th1sIsTh3Fl4g!</t>
+  </si>
+  <si>
+    <t>lf1-Wr4pp3r_Ph4R_pwn3d</t>
+  </si>
+  <si>
+    <t>R3m0t3_iS_r3aL1y_3v1l</t>
+  </si>
+  <si>
+    <t>LINUX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +176,18 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF767676"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -214,9 +241,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +534,10 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
@@ -514,16 +548,16 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="16.8">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -543,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -556,12 +590,12 @@
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.4">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -574,12 +608,12 @@
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -593,11 +627,11 @@
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -611,11 +645,11 @@
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -628,12 +662,12 @@
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
+      <c r="E9" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -651,7 +685,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -669,7 +703,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -687,7 +721,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -705,7 +739,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -721,7 +755,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>11</v>
       </c>

--- a/BT3456/Bài tập 6.1.xlsx
+++ b/BT3456/Bài tập 6.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8DB44C-9020-4DB0-A990-B89695853FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEECD4A-3DC4-43BE-8FDD-9CF8C906DD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1896" yWindow="1728" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2244" yWindow="2076" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Tìm Flag</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -143,13 +140,31 @@
   </si>
   <si>
     <t>LINUX</t>
+  </si>
+  <si>
+    <t>Gg9LRz-hWSxqqUKd77-_q-6G8</t>
+  </si>
+  <si>
+    <t>a7n4nizpgQgnPERy89uanf6T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kcb$!Bx@v4Gs9Ez </t>
+  </si>
+  <si>
+    <t>x4Ss3rT1nglSn0ts4f3A7A1Lx</t>
+  </si>
+  <si>
+    <t>DAPt9D2mky0APAF</t>
+  </si>
+  <si>
+    <t>NoTQYipcRKkgrqG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +200,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -244,13 +283,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +581,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -549,13 +596,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16.8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
@@ -582,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -600,16 +647,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -618,16 +665,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -636,16 +683,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -654,34 +701,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="18">
       <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -690,16 +737,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -708,66 +755,66 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="18">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
+      <c r="E14" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="18">
       <c r="A15" s="4">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
+      <c r="E15" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="5"/>
     </row>
